--- a/map_system/MAP/MAP_Tabel_new.xlsx
+++ b/map_system/MAP/MAP_Tabel_new.xlsx
@@ -511,13 +511,13 @@
         <v>0.2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1930352642929645</v>
+        <v>0.25</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2221170615366028</v>
+        <v>0.25</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1925641396537781</v>
+        <v>0.2</v>
       </c>
       <c r="F2" t="n">
         <v>0.17</v>
@@ -538,19 +538,19 @@
         <v>0.11</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05965646257578246</v>
+        <v>0.1</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.621326825236267</v>
+        <v>0.09</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.8903122973932505</v>
+        <v>0.08</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.081452865767151</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.4988996497643026</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q2" t="n">
         <v>0.06</v>
@@ -568,7 +568,7 @@
         <v>0.03</v>
       </c>
       <c r="V2" t="n">
-        <v>-91.20032562583667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -579,10 +579,10 @@
         <v>0.33</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3035386746519534</v>
+        <v>0.32</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3184866508453369</v>
+        <v>0.32</v>
       </c>
       <c r="E3" t="n">
         <v>0.28</v>
@@ -606,19 +606,19 @@
         <v>0.15</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.019586099073963</v>
+        <v>0.14</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.219743737487735</v>
+        <v>0.13</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.1232071938356049</v>
+        <v>0.12</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.2485560665696893</v>
+        <v>0.11</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.4130792514744326</v>
+        <v>0.1</v>
       </c>
       <c r="Q3" t="n">
         <v>0.1</v>
@@ -636,7 +636,7 @@
         <v>0.06</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.0440155460362854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -647,13 +647,13 @@
         <v>0.33</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4922038896351575</v>
+        <v>0.38</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5048353659385912</v>
+        <v>0.38</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3621142875352423</v>
+        <v>0.35</v>
       </c>
       <c r="F4" t="n">
         <v>0.32</v>
@@ -674,19 +674,19 @@
         <v>0.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1035487985762534</v>
+        <v>0.19</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03298831715255948</v>
+        <v>0.18</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.8053492886097655</v>
+        <v>0.17</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.512492989563761</v>
+        <v>0.15</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.1860351620939024</v>
+        <v>0.15</v>
       </c>
       <c r="Q4" t="n">
         <v>0.13</v>
@@ -715,13 +715,13 @@
         <v>0.33</v>
       </c>
       <c r="C5" t="n">
-        <v>0.606266963028978</v>
+        <v>0.59</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6081145974661776</v>
+        <v>0.59</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5566964274203465</v>
+        <v>0.55</v>
       </c>
       <c r="F5" t="n">
         <v>0.52</v>
@@ -742,22 +742,22 @@
         <v>0.34</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3026085510140168</v>
+        <v>0.31</v>
       </c>
       <c r="M5" t="n">
-        <v>97904.58797525306</v>
+        <v>0.29</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2958846002805425</v>
+        <v>0.28</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2403570871906225</v>
+        <v>0.27</v>
       </c>
       <c r="P5" t="n">
-        <v>0.218865289410381</v>
+        <v>0.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2737124026129069</v>
+        <v>0.24</v>
       </c>
       <c r="R5" t="n">
         <v>0.22</v>
@@ -772,7 +772,7 @@
         <v>0.16</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.02503405378894806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -783,13 +783,13 @@
         <v>0.33</v>
       </c>
       <c r="C6" t="n">
-        <v>1.007417820315525</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1.043270249824378</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.866837815535441</v>
+        <v>0.86</v>
       </c>
       <c r="F6" t="n">
         <v>0.82</v>
@@ -813,28 +813,28 @@
         <v>0.54</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6978149379946382</v>
+        <v>0.5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.533425923333323</v>
+        <v>0.47</v>
       </c>
       <c r="O6" t="n">
-        <v>1.19960137811481</v>
+        <v>0.44</v>
       </c>
       <c r="P6" t="n">
-        <v>1.14927312543607</v>
+        <v>0.42</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.013095550771383</v>
+        <v>0.4</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8649100986685706</v>
+        <v>0.37</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4897845224095792</v>
+        <v>0.34</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3405890173501492</v>
+        <v>0.31</v>
       </c>
       <c r="U6" t="n">
         <v>0.24</v>
@@ -851,13 +851,13 @@
         <v>0.33</v>
       </c>
       <c r="C7" t="n">
-        <v>1.373717403584261</v>
+        <v>1.37</v>
       </c>
       <c r="D7" t="n">
-        <v>1.416212056510176</v>
+        <v>1.37</v>
       </c>
       <c r="E7" t="n">
-        <v>1.192822940227213</v>
+        <v>1.18</v>
       </c>
       <c r="F7" t="n">
         <v>1.08</v>
@@ -881,34 +881,34 @@
         <v>0.77</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7517294888771797</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N7" t="n">
-        <v>1.168742500126041</v>
+        <v>0.62</v>
       </c>
       <c r="O7" t="n">
-        <v>0.642667189439162</v>
+        <v>0.59</v>
       </c>
       <c r="P7" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7131122055035705</v>
+        <v>0.53</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9039893185624257</v>
+        <v>0.5</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9449572589552556</v>
+        <v>0.46</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7582676690029729</v>
+        <v>0.43</v>
       </c>
       <c r="U7" t="n">
-        <v>0.7321416463966843</v>
+        <v>0.36</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.006052559635217667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -919,16 +919,16 @@
         <v>0.33</v>
       </c>
       <c r="C8" t="n">
-        <v>2.280136542645544</v>
+        <v>2.27</v>
       </c>
       <c r="D8" t="n">
-        <v>2.279079457929074</v>
+        <v>2.27</v>
       </c>
       <c r="E8" t="n">
-        <v>1.960283265037945</v>
+        <v>1.91</v>
       </c>
       <c r="F8" t="n">
-        <v>1.727424577946982</v>
+        <v>1.72</v>
       </c>
       <c r="G8" t="n">
         <v>1.62</v>
@@ -943,16 +943,16 @@
         <v>1.39</v>
       </c>
       <c r="K8" t="n">
-        <v>1.296335603910314</v>
+        <v>1.28</v>
       </c>
       <c r="L8" t="n">
-        <v>1.37142199417912</v>
+        <v>1.21</v>
       </c>
       <c r="M8" t="n">
-        <v>1.383714091368353</v>
+        <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>1.132531900187133</v>
+        <v>1.07</v>
       </c>
       <c r="O8" t="n">
         <v>0.98</v>
@@ -967,16 +967,16 @@
         <v>0.8</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9906249005324722</v>
+        <v>0.74</v>
       </c>
       <c r="T8" t="n">
-        <v>1.049710542795961</v>
+        <v>0.67</v>
       </c>
       <c r="U8" t="n">
-        <v>1.013906101065173</v>
+        <v>0.43</v>
       </c>
       <c r="V8" t="n">
-        <v>2.672905402735826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -987,34 +987,34 @@
         <v>0.33</v>
       </c>
       <c r="C9" t="n">
-        <v>3.003811631210859</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>3.010588376461226</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>2.747269832048863</v>
+        <v>2.7</v>
       </c>
       <c r="F9" t="n">
-        <v>2.461758940621746</v>
+        <v>2.43</v>
       </c>
       <c r="G9" t="n">
-        <v>2.279313368840174</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
         <v>2.07</v>
       </c>
       <c r="I9" t="n">
-        <v>2.05830925116685</v>
+        <v>1.98</v>
       </c>
       <c r="J9" t="n">
-        <v>1.885832619424376</v>
+        <v>1.8</v>
       </c>
       <c r="K9" t="n">
-        <v>1.916461871218406</v>
+        <v>1.71</v>
       </c>
       <c r="L9" t="n">
-        <v>1.690127169914542</v>
+        <v>1.62</v>
       </c>
       <c r="M9" t="n">
         <v>1.58</v>
@@ -1041,10 +1041,10 @@
         <v>0.9</v>
       </c>
       <c r="U9" t="n">
-        <v>0.6035503590945482</v>
+        <v>0.45</v>
       </c>
       <c r="V9" t="n">
-        <v>2.657979663962526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1055,28 +1055,28 @@
         <v>0.33</v>
       </c>
       <c r="C10" t="n">
-        <v>3.660730035890394</v>
+        <v>3.65</v>
       </c>
       <c r="D10" t="n">
-        <v>3.65</v>
+        <v>3.665760856488923</v>
       </c>
       <c r="E10" t="n">
-        <v>3.668341362480019</v>
+        <v>3.65</v>
       </c>
       <c r="F10" t="n">
-        <v>3.699415475706266</v>
+        <v>3.65</v>
       </c>
       <c r="G10" t="n">
-        <v>3.728062822808127</v>
+        <v>3.65</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5572140346536</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>3.213271348950987</v>
+        <v>3.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.014158238562719</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>2.9</v>
@@ -1112,7 +1112,7 @@
         <v>0.5</v>
       </c>
       <c r="V10" t="n">
-        <v>3.112238193937534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1123,25 +1123,25 @@
         <v>0.33</v>
       </c>
       <c r="C11" t="n">
-        <v>3.653462846989701</v>
+        <v>3.65</v>
       </c>
       <c r="D11" t="n">
-        <v>3.660017280791835</v>
+        <v>3.670439049131336</v>
       </c>
       <c r="E11" t="n">
-        <v>3.65</v>
+        <v>3.670821081074973</v>
       </c>
       <c r="F11" t="n">
-        <v>3.673439167398069</v>
+        <v>3.666661699838475</v>
       </c>
       <c r="G11" t="n">
-        <v>3.658936505136056</v>
+        <v>3.65</v>
       </c>
       <c r="H11" t="n">
-        <v>3.693923833876787</v>
+        <v>3.65</v>
       </c>
       <c r="I11" t="n">
-        <v>3.662935828169546</v>
+        <v>3.65</v>
       </c>
       <c r="J11" t="n">
         <v>3.65</v>
@@ -1180,7 +1180,7 @@
         <v>0.5</v>
       </c>
       <c r="V11" t="n">
-        <v>3.419992120299397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1191,25 +1191,25 @@
         <v>0.33</v>
       </c>
       <c r="C12" t="n">
-        <v>3.653180446225635</v>
+        <v>3.65</v>
       </c>
       <c r="D12" t="n">
-        <v>3.659835884015206</v>
+        <v>3.669709114497602</v>
       </c>
       <c r="E12" t="n">
-        <v>3.65</v>
+        <v>3.678583640891428</v>
       </c>
       <c r="F12" t="n">
-        <v>3.657726006837987</v>
+        <v>3.682939310339248</v>
       </c>
       <c r="G12" t="n">
-        <v>3.678602223807353</v>
+        <v>3.698256392782426</v>
       </c>
       <c r="H12" t="n">
-        <v>3.671961458129336</v>
+        <v>3.674902695297912</v>
       </c>
       <c r="I12" t="n">
-        <v>3.662351164055814</v>
+        <v>3.659679853203345</v>
       </c>
       <c r="J12" t="n">
         <v>3.65</v>
@@ -1248,7 +1248,7 @@
         <v>0.5</v>
       </c>
       <c r="V12" t="n">
-        <v>3.264901349118195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1259,34 +1259,34 @@
         <v>0.33</v>
       </c>
       <c r="C13" t="n">
-        <v>3.657810932350027</v>
+        <v>3.65</v>
       </c>
       <c r="D13" t="n">
-        <v>3.654642771819291</v>
+        <v>3.667908231528445</v>
       </c>
       <c r="E13" t="n">
-        <v>3.65</v>
+        <v>3.670107531669441</v>
       </c>
       <c r="F13" t="n">
-        <v>3.657469427857514</v>
+        <v>3.682621132849972</v>
       </c>
       <c r="G13" t="n">
-        <v>3.668406478730029</v>
+        <v>3.697870041485193</v>
       </c>
       <c r="H13" t="n">
-        <v>3.65</v>
+        <v>3.724217125801102</v>
       </c>
       <c r="I13" t="n">
-        <v>3.674357054122825</v>
+        <v>3.717619485945714</v>
       </c>
       <c r="J13" t="n">
-        <v>3.719159055774079</v>
+        <v>3.716334682955355</v>
       </c>
       <c r="K13" t="n">
-        <v>3.727075118796725</v>
+        <v>3.6873588130282</v>
       </c>
       <c r="L13" t="n">
-        <v>3.683825514584794</v>
+        <v>3.65</v>
       </c>
       <c r="M13" t="n">
         <v>3.65</v>
@@ -1316,7 +1316,7 @@
         <v>0.5</v>
       </c>
       <c r="V13" t="n">
-        <v>3.82980304529597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1327,64 +1327,64 @@
         <v>0.33</v>
       </c>
       <c r="C14" t="n">
-        <v>3.657330603455405</v>
+        <v>3.65</v>
       </c>
       <c r="D14" t="n">
-        <v>3.655159797509501</v>
+        <v>3.656336081336461</v>
       </c>
       <c r="E14" t="n">
-        <v>3.65</v>
+        <v>3.661933910334452</v>
       </c>
       <c r="F14" t="n">
-        <v>3.666409401073581</v>
+        <v>3.67690846259104</v>
       </c>
       <c r="G14" t="n">
-        <v>3.658945770518845</v>
+        <v>3.677187899461911</v>
       </c>
       <c r="H14" t="n">
-        <v>3.65</v>
+        <v>3.691032312400721</v>
       </c>
       <c r="I14" t="n">
-        <v>3.661768594733499</v>
+        <v>3.726948039050224</v>
       </c>
       <c r="J14" t="n">
-        <v>3.677004759129969</v>
+        <v>3.738266409939948</v>
       </c>
       <c r="K14" t="n">
-        <v>3.65</v>
+        <v>3.761961561480084</v>
       </c>
       <c r="L14" t="n">
-        <v>3.700455663197737</v>
+        <v>3.76070195337621</v>
       </c>
       <c r="M14" t="n">
-        <v>3.704719929081238</v>
+        <v>3.725936497880675</v>
       </c>
       <c r="N14" t="n">
-        <v>3.709493044765856</v>
+        <v>3.733920843806223</v>
       </c>
       <c r="O14" t="n">
-        <v>3.671481104432914</v>
+        <v>3.834296024114464</v>
       </c>
       <c r="P14" t="n">
-        <v>3.65</v>
+        <v>3.769122939772226</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.65</v>
+        <v>3.80034589618958</v>
       </c>
       <c r="R14" t="n">
-        <v>3.65</v>
+        <v>3.854849069825767</v>
       </c>
       <c r="S14" t="n">
-        <v>2.054316152285</v>
+        <v>2.328770750226469</v>
       </c>
       <c r="T14" t="n">
-        <v>1.114924748665198</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>1.070622086057317</v>
+        <v>0.5</v>
       </c>
       <c r="V14" t="n">
-        <v>3.5700385712874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1398,61 +1398,61 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>2.014253997457413</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>2.015377608635322</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>2.009178592155364</v>
+        <v>2.015586672054399</v>
       </c>
       <c r="H15" t="n">
-        <v>2.020121631773161</v>
+        <v>2.044978231058208</v>
       </c>
       <c r="I15" t="n">
-        <v>2.048586146855484</v>
+        <v>2.07330893420432</v>
       </c>
       <c r="J15" t="n">
-        <v>2.026921050735359</v>
+        <v>2.11964320021911</v>
       </c>
       <c r="K15" t="n">
-        <v>2.044575582902667</v>
+        <v>2.173770736348905</v>
       </c>
       <c r="L15" t="n">
-        <v>2.083289198697771</v>
+        <v>2.280534580553252</v>
       </c>
       <c r="M15" t="n">
-        <v>2.090877771566932</v>
+        <v>2.455130130683582</v>
       </c>
       <c r="N15" t="n">
-        <v>2.117335830651393</v>
+        <v>2.498765532890991</v>
       </c>
       <c r="O15" t="n">
-        <v>2.144831351776626</v>
+        <v>2.385134867292698</v>
       </c>
       <c r="P15" t="n">
-        <v>2.271012161594293</v>
+        <v>2.457103855047817</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.266067799496207</v>
+        <v>2.600031223354792</v>
       </c>
       <c r="R15" t="n">
-        <v>2.255093993528393</v>
+        <v>2.382058088767806</v>
       </c>
       <c r="S15" t="n">
-        <v>2.242320880326003</v>
+        <v>2.530502149063164</v>
       </c>
       <c r="T15" t="n">
-        <v>1.340036801159126</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>0.887371477349525</v>
+        <v>0.5</v>
       </c>
       <c r="V15" t="n">
-        <v>30.50260091405423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1463,64 +1463,64 @@
         <v>0.33</v>
       </c>
       <c r="C16" t="n">
-        <v>1.503490442781315</v>
+        <v>1.5</v>
       </c>
       <c r="D16" t="n">
-        <v>1.50921526437385</v>
+        <v>1.5</v>
       </c>
       <c r="E16" t="n">
         <v>1.5</v>
       </c>
       <c r="F16" t="n">
-        <v>1.529062582933519</v>
+        <v>1.5</v>
       </c>
       <c r="G16" t="n">
-        <v>1.509205220319048</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
-        <v>1.5206405962674</v>
+        <v>1.5</v>
       </c>
       <c r="I16" t="n">
-        <v>1.536266394902912</v>
+        <v>1.5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.526639804139863</v>
+        <v>1.5</v>
       </c>
       <c r="K16" t="n">
-        <v>1.560052237126235</v>
+        <v>1.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.532448379530071</v>
+        <v>1.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.553935001914695</v>
+        <v>1.5</v>
       </c>
       <c r="N16" t="n">
-        <v>1.519382152794762</v>
+        <v>1.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.625536111033865</v>
+        <v>1.5</v>
       </c>
       <c r="P16" t="n">
-        <v>1.590649437629358</v>
+        <v>1.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.523282498649652</v>
+        <v>1.5</v>
       </c>
       <c r="R16" t="n">
-        <v>1.600266640882259</v>
+        <v>1.5</v>
       </c>
       <c r="S16" t="n">
-        <v>1.580891165640297</v>
+        <v>1.5</v>
       </c>
       <c r="T16" t="n">
-        <v>1.085403095494918</v>
+        <v>1</v>
       </c>
       <c r="U16" t="n">
-        <v>0.6181115940875411</v>
+        <v>0.5</v>
       </c>
       <c r="V16" t="n">
-        <v>40.95822934135639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1531,64 +1531,64 @@
         <v>0.33</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3444818762993064</v>
+        <v>0.33</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3628867817986519</v>
+        <v>0.33</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4245245991032204</v>
+        <v>0.33</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4629633177411621</v>
+        <v>0.33</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4937027835950912</v>
+        <v>0.33</v>
       </c>
       <c r="H17" t="n">
-        <v>0.54938752384905</v>
+        <v>0.33</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5495868095824645</v>
+        <v>0.33</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5776640833969121</v>
+        <v>0.33</v>
       </c>
       <c r="K17" t="n">
-        <v>0.603500383543955</v>
+        <v>0.33</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6165813925217842</v>
+        <v>0.33</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7116924398346899</v>
+        <v>0.33</v>
       </c>
       <c r="N17" t="n">
-        <v>0.7081694228399353</v>
+        <v>0.33</v>
       </c>
       <c r="O17" t="n">
-        <v>0.7371371839576283</v>
+        <v>0.33</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7905435613420655</v>
+        <v>0.33</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.8226223386083541</v>
+        <v>0.33</v>
       </c>
       <c r="R17" t="n">
-        <v>0.8538726497217302</v>
+        <v>0.33</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8592557387357815</v>
+        <v>0.33</v>
       </c>
       <c r="T17" t="n">
-        <v>0.8319994781396284</v>
+        <v>0.33</v>
       </c>
       <c r="U17" t="n">
-        <v>1.007195767806666</v>
+        <v>0.33</v>
       </c>
       <c r="V17" t="n">
-        <v>4327402774766939</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/map_system/MAP/MAP_Tabel_new.xlsx
+++ b/map_system/MAP/MAP_Tabel_new.xlsx
@@ -1055,13 +1055,13 @@
         <v>0.33</v>
       </c>
       <c r="C10" t="n">
-        <v>3.65</v>
+        <v>3.65728282695267</v>
       </c>
       <c r="D10" t="n">
-        <v>3.665760856488923</v>
+        <v>3.667350229148183</v>
       </c>
       <c r="E10" t="n">
-        <v>3.65</v>
+        <v>3.660180192105747</v>
       </c>
       <c r="F10" t="n">
         <v>3.65</v>
@@ -1123,19 +1123,19 @@
         <v>0.33</v>
       </c>
       <c r="C11" t="n">
-        <v>3.65</v>
+        <v>3.656064390038457</v>
       </c>
       <c r="D11" t="n">
-        <v>3.670439049131336</v>
+        <v>3.675397374747066</v>
       </c>
       <c r="E11" t="n">
-        <v>3.670821081074973</v>
+        <v>3.691209333760307</v>
       </c>
       <c r="F11" t="n">
-        <v>3.666661699838475</v>
+        <v>3.685663234561506</v>
       </c>
       <c r="G11" t="n">
-        <v>3.65</v>
+        <v>3.662692493596019</v>
       </c>
       <c r="H11" t="n">
         <v>3.65</v>
@@ -1191,25 +1191,25 @@
         <v>0.33</v>
       </c>
       <c r="C12" t="n">
-        <v>3.65</v>
+        <v>3.653480968555793</v>
       </c>
       <c r="D12" t="n">
-        <v>3.669709114497602</v>
+        <v>3.676093301226558</v>
       </c>
       <c r="E12" t="n">
-        <v>3.678583640891428</v>
+        <v>3.690799704146557</v>
       </c>
       <c r="F12" t="n">
-        <v>3.682939310339248</v>
+        <v>3.728177435536012</v>
       </c>
       <c r="G12" t="n">
-        <v>3.698256392782426</v>
+        <v>3.743882025405536</v>
       </c>
       <c r="H12" t="n">
-        <v>3.674902695297912</v>
+        <v>3.731295874034642</v>
       </c>
       <c r="I12" t="n">
-        <v>3.659679853203345</v>
+        <v>3.668923331953492</v>
       </c>
       <c r="J12" t="n">
         <v>3.65</v>
@@ -1259,31 +1259,31 @@
         <v>0.33</v>
       </c>
       <c r="C13" t="n">
-        <v>3.65</v>
+        <v>3.65495278639086</v>
       </c>
       <c r="D13" t="n">
-        <v>3.667908231528445</v>
+        <v>3.665581487341138</v>
       </c>
       <c r="E13" t="n">
-        <v>3.670107531669441</v>
+        <v>3.694447594400827</v>
       </c>
       <c r="F13" t="n">
-        <v>3.682621132849972</v>
+        <v>3.710025863172869</v>
       </c>
       <c r="G13" t="n">
-        <v>3.697870041485193</v>
+        <v>3.722064989921691</v>
       </c>
       <c r="H13" t="n">
-        <v>3.724217125801102</v>
+        <v>3.755952697788495</v>
       </c>
       <c r="I13" t="n">
-        <v>3.717619485945714</v>
+        <v>3.792859224085036</v>
       </c>
       <c r="J13" t="n">
-        <v>3.716334682955355</v>
+        <v>3.781085275920017</v>
       </c>
       <c r="K13" t="n">
-        <v>3.6873588130282</v>
+        <v>3.687015832989867</v>
       </c>
       <c r="L13" t="n">
         <v>3.65</v>
@@ -1327,55 +1327,55 @@
         <v>0.33</v>
       </c>
       <c r="C14" t="n">
-        <v>3.65</v>
+        <v>3.651127398739176</v>
       </c>
       <c r="D14" t="n">
-        <v>3.656336081336461</v>
+        <v>3.657460439326345</v>
       </c>
       <c r="E14" t="n">
-        <v>3.661933910334452</v>
+        <v>3.675759553253449</v>
       </c>
       <c r="F14" t="n">
-        <v>3.67690846259104</v>
+        <v>3.685793905823802</v>
       </c>
       <c r="G14" t="n">
-        <v>3.677187899461911</v>
+        <v>3.727478030205171</v>
       </c>
       <c r="H14" t="n">
-        <v>3.691032312400721</v>
+        <v>3.753450085613992</v>
       </c>
       <c r="I14" t="n">
-        <v>3.726948039050224</v>
+        <v>3.78257405920742</v>
       </c>
       <c r="J14" t="n">
-        <v>3.738266409939948</v>
+        <v>3.792231021066208</v>
       </c>
       <c r="K14" t="n">
-        <v>3.761961561480084</v>
+        <v>3.885017863155507</v>
       </c>
       <c r="L14" t="n">
-        <v>3.76070195337621</v>
+        <v>3.911795153513815</v>
       </c>
       <c r="M14" t="n">
-        <v>3.725936497880675</v>
+        <v>3.787232893172973</v>
       </c>
       <c r="N14" t="n">
-        <v>3.733920843806223</v>
+        <v>3.718183930821887</v>
       </c>
       <c r="O14" t="n">
-        <v>3.834296024114464</v>
+        <v>3.70580397987253</v>
       </c>
       <c r="P14" t="n">
-        <v>3.769122939772226</v>
+        <v>3.870052121719015</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.80034589618958</v>
+        <v>3.904370117592659</v>
       </c>
       <c r="R14" t="n">
-        <v>3.854849069825767</v>
+        <v>3.900393261528707</v>
       </c>
       <c r="S14" t="n">
-        <v>2.328770750226469</v>
+        <v>2.584645025449201</v>
       </c>
       <c r="T14" t="n">
         <v>1</v>
@@ -1404,46 +1404,46 @@
         <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>2.006238836379642</v>
       </c>
       <c r="G15" t="n">
-        <v>2.015586672054399</v>
+        <v>2.038180011906085</v>
       </c>
       <c r="H15" t="n">
-        <v>2.044978231058208</v>
+        <v>2.098810136492929</v>
       </c>
       <c r="I15" t="n">
-        <v>2.07330893420432</v>
+        <v>2.169150913643989</v>
       </c>
       <c r="J15" t="n">
-        <v>2.11964320021911</v>
+        <v>2.274626354569778</v>
       </c>
       <c r="K15" t="n">
-        <v>2.173770736348905</v>
+        <v>2.410734612509187</v>
       </c>
       <c r="L15" t="n">
-        <v>2.280534580553252</v>
+        <v>2.546437258626256</v>
       </c>
       <c r="M15" t="n">
-        <v>2.455130130683582</v>
+        <v>2.79413366925338</v>
       </c>
       <c r="N15" t="n">
-        <v>2.498765532890991</v>
+        <v>3.075439938268871</v>
       </c>
       <c r="O15" t="n">
-        <v>2.385134867292698</v>
+        <v>3.016576369980133</v>
       </c>
       <c r="P15" t="n">
-        <v>2.457103855047817</v>
+        <v>2.946970538777194</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.600031223354792</v>
+        <v>2.996991285679033</v>
       </c>
       <c r="R15" t="n">
-        <v>2.382058088767806</v>
+        <v>2.94325888094437</v>
       </c>
       <c r="S15" t="n">
-        <v>2.530502149063164</v>
+        <v>3.124594582175367</v>
       </c>
       <c r="T15" t="n">
         <v>1</v>
@@ -1499,16 +1499,16 @@
         <v>1.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.5</v>
+        <v>1.538562116805579</v>
       </c>
       <c r="P16" t="n">
-        <v>1.5</v>
+        <v>1.521319739941587</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.5</v>
+        <v>1.523027443662013</v>
       </c>
       <c r="R16" t="n">
-        <v>1.5</v>
+        <v>1.524734101404112</v>
       </c>
       <c r="S16" t="n">
         <v>1.5</v>

--- a/map_system/MAP/MAP_Tabel_new.xlsx
+++ b/map_system/MAP/MAP_Tabel_new.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -550,16 +550,16 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.2384206426645033</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.06</v>
+        <v>0.2574083139818353</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05</v>
+        <v>0.2460785415215298</v>
       </c>
       <c r="S2" t="n">
-        <v>0.05</v>
+        <v>0.2518774165163138</v>
       </c>
       <c r="T2" t="n">
         <v>0.04</v>
@@ -618,7 +618,7 @@
         <v>0.11</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1</v>
+        <v>0.1385581827828611</v>
       </c>
       <c r="Q3" t="n">
         <v>0.1</v>
@@ -683,7 +683,7 @@
         <v>0.17</v>
       </c>
       <c r="O4" t="n">
-        <v>0.15</v>
+        <v>0.1883889529033826</v>
       </c>
       <c r="P4" t="n">
         <v>0.15</v>
@@ -751,7 +751,7 @@
         <v>0.28</v>
       </c>
       <c r="O5" t="n">
-        <v>0.27</v>
+        <v>0.306240269046557</v>
       </c>
       <c r="P5" t="n">
         <v>0.25</v>
@@ -819,7 +819,7 @@
         <v>0.47</v>
       </c>
       <c r="O6" t="n">
-        <v>0.44</v>
+        <v>0.4820659011404147</v>
       </c>
       <c r="P6" t="n">
         <v>0.42</v>
@@ -884,7 +884,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="N7" t="n">
-        <v>0.62</v>
+        <v>0.6908350270217174</v>
       </c>
       <c r="O7" t="n">
         <v>0.59</v>
@@ -949,10 +949,10 @@
         <v>1.21</v>
       </c>
       <c r="M8" t="n">
-        <v>1.13</v>
+        <v>1.161988419642355</v>
       </c>
       <c r="N8" t="n">
-        <v>1.07</v>
+        <v>1.086653044892686</v>
       </c>
       <c r="O8" t="n">
         <v>0.98</v>
@@ -1014,10 +1014,10 @@
         <v>1.71</v>
       </c>
       <c r="L9" t="n">
-        <v>1.62</v>
+        <v>1.648165712178248</v>
       </c>
       <c r="M9" t="n">
-        <v>1.58</v>
+        <v>1.594942961287626</v>
       </c>
       <c r="N9" t="n">
         <v>1.49</v>
@@ -1055,13 +1055,13 @@
         <v>0.33</v>
       </c>
       <c r="C10" t="n">
-        <v>3.65728282695267</v>
+        <v>3.661583708882542</v>
       </c>
       <c r="D10" t="n">
-        <v>3.667350229148183</v>
+        <v>3.664507316771808</v>
       </c>
       <c r="E10" t="n">
-        <v>3.660180192105747</v>
+        <v>3.657013315737825</v>
       </c>
       <c r="F10" t="n">
         <v>3.65</v>
@@ -1070,16 +1070,16 @@
         <v>3.65</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.507402492257241</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>3.208750422391208</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>3.020882537814929</v>
       </c>
       <c r="K10" t="n">
-        <v>2.9</v>
+        <v>2.911948372504573</v>
       </c>
       <c r="L10" t="n">
         <v>2.7</v>
@@ -1123,19 +1123,19 @@
         <v>0.33</v>
       </c>
       <c r="C11" t="n">
-        <v>3.656064390038457</v>
+        <v>3.659584215094544</v>
       </c>
       <c r="D11" t="n">
-        <v>3.675397374747066</v>
+        <v>3.683570685450283</v>
       </c>
       <c r="E11" t="n">
-        <v>3.691209333760307</v>
+        <v>3.695318944620672</v>
       </c>
       <c r="F11" t="n">
-        <v>3.685663234561506</v>
+        <v>3.685098162073109</v>
       </c>
       <c r="G11" t="n">
-        <v>3.662692493596019</v>
+        <v>3.656118168185516</v>
       </c>
       <c r="H11" t="n">
         <v>3.65</v>
@@ -1191,25 +1191,25 @@
         <v>0.33</v>
       </c>
       <c r="C12" t="n">
-        <v>3.653480968555793</v>
+        <v>3.660347464708408</v>
       </c>
       <c r="D12" t="n">
-        <v>3.676093301226558</v>
+        <v>3.671598038278771</v>
       </c>
       <c r="E12" t="n">
-        <v>3.690799704146557</v>
+        <v>3.697816749145588</v>
       </c>
       <c r="F12" t="n">
-        <v>3.728177435536012</v>
+        <v>3.70347124145702</v>
       </c>
       <c r="G12" t="n">
-        <v>3.743882025405536</v>
+        <v>3.742124843017729</v>
       </c>
       <c r="H12" t="n">
-        <v>3.731295874034642</v>
+        <v>3.687244533954707</v>
       </c>
       <c r="I12" t="n">
-        <v>3.668923331953492</v>
+        <v>3.65</v>
       </c>
       <c r="J12" t="n">
         <v>3.65</v>
@@ -1259,31 +1259,31 @@
         <v>0.33</v>
       </c>
       <c r="C13" t="n">
-        <v>3.65495278639086</v>
+        <v>3.654029809963146</v>
       </c>
       <c r="D13" t="n">
-        <v>3.665581487341138</v>
+        <v>3.672891700642704</v>
       </c>
       <c r="E13" t="n">
-        <v>3.694447594400827</v>
+        <v>3.688592938482865</v>
       </c>
       <c r="F13" t="n">
-        <v>3.710025863172869</v>
+        <v>3.712799700250373</v>
       </c>
       <c r="G13" t="n">
-        <v>3.722064989921691</v>
+        <v>3.73505458948165</v>
       </c>
       <c r="H13" t="n">
-        <v>3.755952697788495</v>
+        <v>3.774239052320703</v>
       </c>
       <c r="I13" t="n">
-        <v>3.792859224085036</v>
+        <v>3.786377564232291</v>
       </c>
       <c r="J13" t="n">
-        <v>3.781085275920017</v>
+        <v>3.737591921490822</v>
       </c>
       <c r="K13" t="n">
-        <v>3.687015832989867</v>
+        <v>3.660963601965459</v>
       </c>
       <c r="L13" t="n">
         <v>3.65</v>
@@ -1327,55 +1327,55 @@
         <v>0.33</v>
       </c>
       <c r="C14" t="n">
-        <v>3.651127398739176</v>
+        <v>3.651304153247015</v>
       </c>
       <c r="D14" t="n">
-        <v>3.657460439326345</v>
+        <v>3.657356773577789</v>
       </c>
       <c r="E14" t="n">
-        <v>3.675759553253449</v>
+        <v>3.67118193557203</v>
       </c>
       <c r="F14" t="n">
-        <v>3.685793905823802</v>
+        <v>3.68753192800573</v>
       </c>
       <c r="G14" t="n">
-        <v>3.727478030205171</v>
+        <v>3.720413236893962</v>
       </c>
       <c r="H14" t="n">
-        <v>3.753450085613992</v>
+        <v>3.735768103278947</v>
       </c>
       <c r="I14" t="n">
-        <v>3.78257405920742</v>
+        <v>3.77520008383144</v>
       </c>
       <c r="J14" t="n">
-        <v>3.792231021066208</v>
+        <v>3.82429109399408</v>
       </c>
       <c r="K14" t="n">
-        <v>3.885017863155507</v>
+        <v>3.877722543887828</v>
       </c>
       <c r="L14" t="n">
-        <v>3.911795153513815</v>
+        <v>3.830773229918782</v>
       </c>
       <c r="M14" t="n">
-        <v>3.787232893172973</v>
+        <v>3.767948141600703</v>
       </c>
       <c r="N14" t="n">
-        <v>3.718183930821887</v>
+        <v>3.708130296776838</v>
       </c>
       <c r="O14" t="n">
-        <v>3.70580397987253</v>
+        <v>3.729045360641237</v>
       </c>
       <c r="P14" t="n">
-        <v>3.870052121719015</v>
+        <v>3.888792926399572</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.904370117592659</v>
+        <v>3.903755074982333</v>
       </c>
       <c r="R14" t="n">
-        <v>3.900393261528707</v>
+        <v>3.903092591818119</v>
       </c>
       <c r="S14" t="n">
-        <v>2.584645025449201</v>
+        <v>2.416357419833661</v>
       </c>
       <c r="T14" t="n">
         <v>1</v>
@@ -1404,46 +1404,46 @@
         <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>2.006238836379642</v>
+        <v>2.00581213776609</v>
       </c>
       <c r="G15" t="n">
-        <v>2.038180011906085</v>
+        <v>2.020642582532698</v>
       </c>
       <c r="H15" t="n">
-        <v>2.098810136492929</v>
+        <v>2.073310007751704</v>
       </c>
       <c r="I15" t="n">
-        <v>2.169150913643989</v>
+        <v>2.141415096527757</v>
       </c>
       <c r="J15" t="n">
-        <v>2.274626354569778</v>
+        <v>2.242921895509076</v>
       </c>
       <c r="K15" t="n">
-        <v>2.410734612509187</v>
+        <v>2.354287306534471</v>
       </c>
       <c r="L15" t="n">
-        <v>2.546437258626256</v>
+        <v>2.536575352250127</v>
       </c>
       <c r="M15" t="n">
-        <v>2.79413366925338</v>
+        <v>2.700962107752559</v>
       </c>
       <c r="N15" t="n">
-        <v>3.075439938268871</v>
+        <v>2.850222469896105</v>
       </c>
       <c r="O15" t="n">
-        <v>3.016576369980133</v>
+        <v>2.900727504309472</v>
       </c>
       <c r="P15" t="n">
-        <v>2.946970538777194</v>
+        <v>2.754062450432983</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.996991285679033</v>
+        <v>2.788226416240722</v>
       </c>
       <c r="R15" t="n">
-        <v>2.94325888094437</v>
+        <v>2.858695264922927</v>
       </c>
       <c r="S15" t="n">
-        <v>3.124594582175367</v>
+        <v>2.906368576804426</v>
       </c>
       <c r="T15" t="n">
         <v>1</v>
@@ -1496,22 +1496,22 @@
         <v>1.5</v>
       </c>
       <c r="N16" t="n">
+        <v>1.515445697821445</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.534047509025913</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.518733542181289</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.520100409723135</v>
+      </c>
+      <c r="R16" t="n">
         <v>1.5</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.538562116805579</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.521319739941587</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.523027443662013</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.524734101404112</v>
-      </c>
       <c r="S16" t="n">
-        <v>1.5</v>
+        <v>1.522399269105873</v>
       </c>
       <c r="T16" t="n">
         <v>1</v>
